--- a/excel.xlsx
+++ b/excel.xlsx
@@ -124,7 +124,7 @@
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -140,13 +140,13 @@
         <v>0</v>
       </c>
       <c r="C1" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="0" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
